--- a/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E3A8224-5887-4524-8921-DDCB874AEBEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF128EA-8A08-465E-BE14-C28D68967993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6702EF81-6F11-4261-9ADA-F481F21096D7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B908C7-9C3E-4CDF-B0F4-465A8E778C95}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>87,87%</t>
   </si>
   <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>88,77%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,16 +251,16 @@
     <t>89,9%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>86,17%</t>
   </si>
   <si>
-    <t>83,94%</t>
+    <t>83,7%</t>
   </si>
   <si>
     <t>88,11%</t>
@@ -269,19 +269,16 @@
     <t>88,0%</t>
   </si>
   <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>86,26%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>13,83%</t>
@@ -290,16 +287,13 @@
     <t>11,89%</t>
   </si>
   <si>
-    <t>16,06%</t>
+    <t>16,3%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
+    <t>13,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +302,49 @@
     <t>87,12%</t>
   </si>
   <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
   </si>
   <si>
     <t>88,84%</t>
   </si>
   <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>86,33%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>13,67%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,109 +353,103 @@
     <t>86,82%</t>
   </si>
   <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>88,71%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>11,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9759908C-9DED-4D1D-A1DE-A642AA56AF76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10984921-7E86-4666-B38A-30FA891A9815}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1507,7 +1489,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1504,13 @@
         <v>68798</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -1537,13 +1519,13 @@
         <v>97235</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -1552,13 +1534,13 @@
         <v>166033</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1608,13 @@
         <v>486676</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>817</v>
@@ -1641,13 +1623,13 @@
         <v>494747</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1347</v>
@@ -1656,13 +1638,13 @@
         <v>981423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1659,13 @@
         <v>71923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -1692,13 +1674,13 @@
         <v>62165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -1707,13 +1689,13 @@
         <v>134088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1763,13 @@
         <v>540158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>1228</v>
@@ -1796,13 +1778,13 @@
         <v>776411</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>2014</v>
@@ -1811,13 +1793,13 @@
         <v>1316569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1814,13 @@
         <v>81967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -1847,13 +1829,13 @@
         <v>111937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -1862,13 +1844,13 @@
         <v>193905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1918,13 @@
         <v>2748490</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>4182</v>
@@ -1951,28 +1933,28 @@
         <v>3036105</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>6857</v>
       </c>
       <c r="N22" s="7">
-        <v>5784595</v>
+        <v>5784596</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1969,13 @@
         <v>366582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>694</v>
@@ -2002,13 +1984,13 @@
         <v>451045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1110</v>
@@ -2017,13 +1999,13 @@
         <v>817627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2047,7 @@
         <v>7967</v>
       </c>
       <c r="N24" s="7">
-        <v>6602222</v>
+        <v>6602223</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2079,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF128EA-8A08-465E-BE14-C28D68967993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F56E088-955D-4A5A-BAFD-075F5C737655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A3B908C7-9C3E-4CDF-B0F4-465A8E778C95}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E12A2F4D-6C79-4CF4-A513-B5BABAC101D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10984921-7E86-4666-B38A-30FA891A9815}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196B928-7B59-4F41-B747-849CB2222A05}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F56E088-955D-4A5A-BAFD-075F5C737655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1A4F5C-EA15-4B66-8907-3D649C5D56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E12A2F4D-6C79-4CF4-A513-B5BABAC101D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C0817C6-0724-441F-BD98-CFC6EC940E91}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>88,9%</t>
   </si>
   <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>90,29%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>9,71%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>10,42%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>87,87%</t>
   </si>
   <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>83,62%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>12,13%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>88,77%</t>
   </si>
   <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>87,83%</t>
   </si>
   <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>11,23%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>13,06%</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,16 +251,16 @@
     <t>89,9%</t>
   </si>
   <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>86,17%</t>
   </si>
   <si>
-    <t>83,7%</t>
+    <t>83,94%</t>
   </si>
   <si>
     <t>88,11%</t>
@@ -269,16 +269,19 @@
     <t>88,0%</t>
   </si>
   <si>
-    <t>86,26%</t>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>13,83%</t>
@@ -287,13 +290,16 @@
     <t>11,89%</t>
   </si>
   <si>
-    <t>16,3%</t>
+    <t>16,06%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>13,74%</t>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -302,49 +308,55 @@
     <t>87,12%</t>
   </si>
   <si>
-    <t>84,09%</t>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>89,74%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
     <t>12,88%</t>
   </si>
   <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
+    <t>13,78%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -353,103 +365,109 @@
     <t>86,82%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>87,16%</t>
   </si>
   <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
   </si>
   <si>
     <t>88,23%</t>
   </si>
   <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>88,71%</t>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>11,77%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>11,29%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D196B928-7B59-4F41-B747-849CB2222A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94411A55-8D94-45B9-91CF-FB7089AC35D9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,7 +1507,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1522,13 @@
         <v>68798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>167</v>
@@ -1519,13 +1537,13 @@
         <v>97235</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>245</v>
@@ -1534,13 +1552,13 @@
         <v>166033</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1626,13 @@
         <v>486676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>817</v>
@@ -1623,13 +1641,13 @@
         <v>494747</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>1347</v>
@@ -1638,13 +1656,13 @@
         <v>981423</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1677,13 @@
         <v>71923</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>118</v>
@@ -1674,13 +1692,13 @@
         <v>62165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>205</v>
@@ -1689,13 +1707,13 @@
         <v>134088</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1751,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1781,13 @@
         <v>540158</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>1228</v>
@@ -1778,13 +1796,13 @@
         <v>776411</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>2014</v>
@@ -1793,13 +1811,13 @@
         <v>1316569</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1832,13 @@
         <v>81967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -1829,13 +1847,13 @@
         <v>111937</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>331</v>
@@ -1844,13 +1862,13 @@
         <v>193905</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1936,13 @@
         <v>2748490</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>4182</v>
@@ -1933,28 +1951,28 @@
         <v>3036105</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>6857</v>
       </c>
       <c r="N22" s="7">
-        <v>5784596</v>
+        <v>5784595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1987,13 @@
         <v>366582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>694</v>
@@ -1984,13 +2002,13 @@
         <v>451045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>1110</v>
@@ -1999,13 +2017,13 @@
         <v>817627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,7 +2065,7 @@
         <v>7967</v>
       </c>
       <c r="N24" s="7">
-        <v>6602223</v>
+        <v>6602222</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2061,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39A5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE1A4F5C-EA15-4B66-8907-3D649C5D56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3727D8C2-27ED-4128-A5C9-0D0195483058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1C0817C6-0724-441F-BD98-CFC6EC940E91}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DBFA5E67-D849-44AD-B445-0445251F6B6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Población según si diría que estar con dificultad para respirar es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 91,12%)</t>
   </si>
@@ -65,409 +65,460 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>83,33%</t>
   </si>
   <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>65-74</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>11,47%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>14,52%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -882,8 +933,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94411A55-8D94-45B9-91CF-FB7089AC35D9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2E1000-A58F-4135-8E06-DC1273C61A87}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1003,7 +1054,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="7">
-        <v>294343</v>
+        <v>311647</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1018,7 +1069,7 @@
         <v>164</v>
       </c>
       <c r="I4" s="7">
-        <v>286075</v>
+        <v>248593</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1033,7 +1084,7 @@
         <v>295</v>
       </c>
       <c r="N4" s="7">
-        <v>580419</v>
+        <v>560241</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1054,7 +1105,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>36767</v>
+        <v>44150</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1069,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>30775</v>
+        <v>28989</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1084,7 +1135,7 @@
         <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>67541</v>
+        <v>73138</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1105,7 +1156,7 @@
         <v>151</v>
       </c>
       <c r="D6" s="7">
-        <v>331110</v>
+        <v>355797</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1120,7 +1171,7 @@
         <v>186</v>
       </c>
       <c r="I6" s="7">
-        <v>316850</v>
+        <v>277582</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1135,7 +1186,7 @@
         <v>337</v>
       </c>
       <c r="N6" s="7">
-        <v>647960</v>
+        <v>633379</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1158,7 +1209,7 @@
         <v>243</v>
       </c>
       <c r="D7" s="7">
-        <v>344212</v>
+        <v>338344</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1173,7 +1224,7 @@
         <v>365</v>
       </c>
       <c r="I7" s="7">
-        <v>388835</v>
+        <v>351237</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1188,7 +1239,7 @@
         <v>608</v>
       </c>
       <c r="N7" s="7">
-        <v>733047</v>
+        <v>689581</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1209,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>47536</v>
+        <v>50811</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1224,7 +1275,7 @@
         <v>61</v>
       </c>
       <c r="I8" s="7">
-        <v>76190</v>
+        <v>131116</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1239,7 +1290,7 @@
         <v>98</v>
       </c>
       <c r="N8" s="7">
-        <v>123726</v>
+        <v>181927</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1260,7 +1311,7 @@
         <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>391748</v>
+        <v>389155</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1275,7 +1326,7 @@
         <v>426</v>
       </c>
       <c r="I9" s="7">
-        <v>465025</v>
+        <v>482353</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1290,7 +1341,7 @@
         <v>706</v>
       </c>
       <c r="N9" s="7">
-        <v>856773</v>
+        <v>871508</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1313,7 +1364,7 @@
         <v>442</v>
       </c>
       <c r="D10" s="7">
-        <v>470981</v>
+        <v>449128</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1328,7 +1379,7 @@
         <v>686</v>
       </c>
       <c r="I10" s="7">
-        <v>484131</v>
+        <v>446984</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1343,7 +1394,7 @@
         <v>1128</v>
       </c>
       <c r="N10" s="7">
-        <v>955111</v>
+        <v>896112</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1364,7 +1415,7 @@
         <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>59591</v>
+        <v>61236</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1379,7 +1430,7 @@
         <v>119</v>
       </c>
       <c r="I11" s="7">
-        <v>72743</v>
+        <v>71571</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1394,7 +1445,7 @@
         <v>189</v>
       </c>
       <c r="N11" s="7">
-        <v>132335</v>
+        <v>132807</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1415,7 +1466,7 @@
         <v>512</v>
       </c>
       <c r="D12" s="7">
-        <v>530572</v>
+        <v>510364</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1430,7 +1481,7 @@
         <v>805</v>
       </c>
       <c r="I12" s="7">
-        <v>556874</v>
+        <v>518555</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1445,7 +1496,7 @@
         <v>1317</v>
       </c>
       <c r="N12" s="7">
-        <v>1087446</v>
+        <v>1028919</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1468,7 +1519,7 @@
         <v>543</v>
       </c>
       <c r="D13" s="7">
-        <v>612121</v>
+        <v>777527</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1483,7 +1534,7 @@
         <v>922</v>
       </c>
       <c r="I13" s="7">
-        <v>605907</v>
+        <v>555484</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1498,7 +1549,7 @@
         <v>1465</v>
       </c>
       <c r="N13" s="7">
-        <v>1218027</v>
+        <v>1333011</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1519,7 +1570,7 @@
         <v>78</v>
       </c>
       <c r="D14" s="7">
-        <v>68798</v>
+        <v>70331</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1534,7 +1585,7 @@
         <v>167</v>
       </c>
       <c r="I14" s="7">
-        <v>97235</v>
+        <v>93441</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1549,7 +1600,7 @@
         <v>245</v>
       </c>
       <c r="N14" s="7">
-        <v>166033</v>
+        <v>163772</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1570,7 +1621,7 @@
         <v>621</v>
       </c>
       <c r="D15" s="7">
-        <v>680919</v>
+        <v>847858</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1585,7 +1636,7 @@
         <v>1089</v>
       </c>
       <c r="I15" s="7">
-        <v>703142</v>
+        <v>648925</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1600,7 +1651,7 @@
         <v>1710</v>
       </c>
       <c r="N15" s="7">
-        <v>1384060</v>
+        <v>1496783</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1623,7 +1674,7 @@
         <v>530</v>
       </c>
       <c r="D16" s="7">
-        <v>486676</v>
+        <v>452308</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1638,7 +1689,7 @@
         <v>817</v>
       </c>
       <c r="I16" s="7">
-        <v>494747</v>
+        <v>451603</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1653,7 +1704,7 @@
         <v>1347</v>
       </c>
       <c r="N16" s="7">
-        <v>981423</v>
+        <v>903911</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1674,7 +1725,7 @@
         <v>87</v>
       </c>
       <c r="D17" s="7">
-        <v>71923</v>
+        <v>71051</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1689,7 +1740,7 @@
         <v>118</v>
       </c>
       <c r="I17" s="7">
-        <v>62165</v>
+        <v>59572</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1704,7 +1755,7 @@
         <v>205</v>
       </c>
       <c r="N17" s="7">
-        <v>134088</v>
+        <v>130623</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1725,7 +1776,7 @@
         <v>617</v>
       </c>
       <c r="D18" s="7">
-        <v>558599</v>
+        <v>523359</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1740,7 +1791,7 @@
         <v>935</v>
       </c>
       <c r="I18" s="7">
-        <v>556912</v>
+        <v>511175</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1755,7 +1806,7 @@
         <v>1552</v>
       </c>
       <c r="N18" s="7">
-        <v>1115511</v>
+        <v>1034534</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1775,10 +1826,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>786</v>
+        <v>460</v>
       </c>
       <c r="D19" s="7">
-        <v>540158</v>
+        <v>297502</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1790,10 +1841,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>1228</v>
+        <v>657</v>
       </c>
       <c r="I19" s="7">
-        <v>776411</v>
+        <v>522881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1805,10 +1856,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>2014</v>
+        <v>1117</v>
       </c>
       <c r="N19" s="7">
-        <v>1316569</v>
+        <v>820382</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1826,10 +1877,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D20" s="7">
-        <v>81967</v>
+        <v>38558</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1841,10 +1892,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>207</v>
+        <v>90</v>
       </c>
       <c r="I20" s="7">
-        <v>111937</v>
+        <v>45582</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1856,10 +1907,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>331</v>
+        <v>150</v>
       </c>
       <c r="N20" s="7">
-        <v>193905</v>
+        <v>84141</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1877,10 +1928,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>910</v>
+        <v>520</v>
       </c>
       <c r="D21" s="7">
-        <v>622125</v>
+        <v>336060</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1892,10 +1943,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1435</v>
+        <v>747</v>
       </c>
       <c r="I21" s="7">
-        <v>888348</v>
+        <v>568463</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1907,10 +1958,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2345</v>
+        <v>1267</v>
       </c>
       <c r="N21" s="7">
-        <v>1510474</v>
+        <v>904523</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1924,55 +1975,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2675</v>
+        <v>326</v>
       </c>
       <c r="D22" s="7">
-        <v>2748490</v>
+        <v>202325</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>4182</v>
+        <v>571</v>
       </c>
       <c r="I22" s="7">
-        <v>3036105</v>
+        <v>280662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>6857</v>
+        <v>897</v>
       </c>
       <c r="N22" s="7">
-        <v>5784595</v>
+        <v>482987</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,49 +2032,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>416</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7">
-        <v>366582</v>
+        <v>42223</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>694</v>
+        <v>117</v>
       </c>
       <c r="I23" s="7">
-        <v>451045</v>
+        <v>59341</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>1110</v>
+        <v>181</v>
       </c>
       <c r="N23" s="7">
-        <v>817627</v>
+        <v>101565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2032,63 +2083,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>390</v>
+      </c>
+      <c r="D24" s="7">
+        <v>244548</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>688</v>
+      </c>
+      <c r="I24" s="7">
+        <v>340003</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1078</v>
+      </c>
+      <c r="N24" s="7">
+        <v>584552</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2675</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2828781</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>4182</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2857444</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>6857</v>
+      </c>
+      <c r="N25" s="7">
+        <v>5686225</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>416</v>
+      </c>
+      <c r="D26" s="7">
+        <v>378361</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="7">
+        <v>694</v>
+      </c>
+      <c r="I26" s="7">
+        <v>489612</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1110</v>
+      </c>
+      <c r="N26" s="7">
+        <v>867973</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3091</v>
       </c>
-      <c r="D24" s="7">
-        <v>3115072</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3207142</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>4876</v>
       </c>
-      <c r="I24" s="7">
-        <v>3487150</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3347056</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>7967</v>
       </c>
-      <c r="N24" s="7">
-        <v>6602222</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6554198</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
